--- a/trunk/ tp-distribuidos-grupo3/documentacion/Configuracion subnetting.xlsx
+++ b/trunk/ tp-distribuidos-grupo3/documentacion/Configuracion subnetting.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FIUBA-tps\distrib\tp-distribuidos-grupo3\ tp-distribuidos-grupo3\documentacion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="390" yWindow="540" windowWidth="18615" windowHeight="5835"/>
   </bookViews>
@@ -757,12 +762,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -804,7 +812,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -839,7 +847,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1051,15 +1059,15 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>

--- a/trunk/ tp-distribuidos-grupo3/documentacion/Configuracion subnetting.xlsx
+++ b/trunk/ tp-distribuidos-grupo3/documentacion/Configuracion subnetting.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FIUBA-tps\distrib\tp-distribuidos-grupo3\ tp-distribuidos-grupo3\documentacion\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="390" yWindow="540" windowWidth="18615" windowHeight="5835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -69,9 +64,6 @@
     <t>Completo</t>
   </si>
   <si>
-    <t>Enlace!</t>
-  </si>
-  <si>
     <t>Bianchi</t>
   </si>
   <si>
@@ -445,6 +437,9 @@
   </si>
   <si>
     <t>Yeti</t>
+  </si>
+  <si>
+    <t>Enlace</t>
   </si>
 </sst>
 </file>
@@ -462,18 +457,21 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF6AA84F"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -481,17 +479,20 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -514,7 +515,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -562,21 +563,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -649,9 +635,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -667,12 +651,21 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -685,78 +678,373 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF3C78D8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -769,8 +1057,28 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:H23" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:H23"/>
+  <sortState ref="A2:H23">
+    <sortCondition descending="1" ref="B1:B23"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="7" name="Red" dataDxfId="1"/>
+    <tableColumn id="8" name="Sede" dataDxfId="0"/>
+    <tableColumn id="1" name="Marca" dataDxfId="8"/>
+    <tableColumn id="2" name="Routers que la forman" dataDxfId="7"/>
+    <tableColumn id="3" name="Direcciones necesarias" dataDxfId="6"/>
+    <tableColumn id="4" name="Mascara IP" dataDxfId="5"/>
+    <tableColumn id="5" name="Direccion de red IP"/>
+    <tableColumn id="6" name="Notas" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -812,7 +1120,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -847,7 +1155,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1059,59 +1367,60 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -1123,585 +1432,585 @@
       <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>140</v>
+      <c r="A3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="6">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="6">
+        <v>103</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="6">
         <v>29</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="6">
-        <v>4</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="6">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="B8" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="6">
-        <v>4</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="E8" s="6">
         <v>4</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="H8" s="16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>39</v>
+      <c r="A9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="E9" s="6">
         <v>4</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="6">
-        <v>29</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>48</v>
-      </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>52</v>
+      <c r="A11" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>58</v>
+      <c r="A12" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E12" s="6">
         <v>4</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>63</v>
+      <c r="A13" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="E13" s="6">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="16"/>
+        <v>28</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>107</v>
+      </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>68</v>
+      <c r="A14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="E14" s="6">
         <v>4</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>76</v>
-      </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="6">
-        <v>37</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="6">
-        <v>250</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="C19" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>95</v>
       </c>
       <c r="E19" s="6">
         <v>7</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="B20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>100</v>
       </c>
       <c r="E20" s="6">
         <v>13</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G20" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="16" t="s">
-        <v>102</v>
-      </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="6">
-        <v>4</v>
+      <c r="A21" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>111</v>
+      <c r="A22" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="E22" s="6">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>113</v>
+        <v>86</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="6">
-        <v>4</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>118</v>
+      <c r="A23" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="22">
+        <v>250</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E25" s="5"/>
@@ -1709,80 +2018,80 @@
     </row>
     <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" s="2"/>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D27" s="2"/>
-      <c r="E27" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" s="10" t="s">
+      <c r="E27" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D28" s="2"/>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>123</v>
       </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D29" s="2"/>
-      <c r="E29" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F29" s="10" t="s">
+      <c r="E29" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D30" s="2"/>
-      <c r="E30" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>87</v>
+      <c r="E30" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D31" s="2"/>
-      <c r="E31" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>64</v>
+      <c r="E31" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D32" s="2"/>
-      <c r="E32" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>123</v>
+      <c r="E32" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D33" s="2"/>
-      <c r="E33" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F33" s="10" t="s">
+      <c r="E33" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="1"/>
@@ -1792,7 +2101,13 @@
       <c r="F34" s="4"/>
     </row>
   </sheetData>
+  <sortState ref="A2:H23">
+    <sortCondition ref="G1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>